--- a/AppTec/practice/TeamC/テスト実施/試験仕様書/試験仕様書(TeamC_0623).xlsx
+++ b/AppTec/practice/TeamC/テスト実施/試験仕様書/試験仕様書(TeamC_0623).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6450" tabRatio="774"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6450" tabRatio="774"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -69,6 +69,252 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>松田直樹</author>
+  </authors>
+  <commentList>
+    <comment ref="W21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>松田直樹:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+エビデンスと確認内容が違う。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>松田直樹</author>
+  </authors>
+  <commentList>
+    <comment ref="AH16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>松田直樹:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+これ何？</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>松田直樹</author>
+  </authors>
+  <commentList>
+    <comment ref="W12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>松田直樹:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+エビデンスが違う。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>松田直樹</author>
+  </authors>
+  <commentList>
+    <comment ref="W13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>松田直樹:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+エビデンスを他と平仄を合わせ別シートにしてください。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>松田直樹</author>
+  </authors>
+  <commentList>
+    <comment ref="W12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>松田直樹:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+エビデンスを他と平仄を合わせシートを分ける</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>松田直樹</author>
+  </authors>
+  <commentList>
+    <comment ref="E12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>松田直樹:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+エビデンス(DB)に投稿件数が表示されていない。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>松田直樹:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+画面のボタンの位置が設計書と違いますが。
+これは設計書を修正するのではなく、画面を修正してください。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="668">
   <si>
@@ -5141,7 +5387,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -5205,8 +5451,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5216,6 +5477,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5369,7 +5636,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5791,6 +6058,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5799,15 +6078,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5821,7 +6091,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5896,11 +6172,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6195,15 +6507,15 @@
   <dimension ref="A1:FT36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="22" customWidth="1"/>
-    <col min="7" max="28" width="4.08984375" style="6" customWidth="1"/>
-    <col min="29" max="32" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="22" customWidth="1"/>
+    <col min="7" max="28" width="4.125" style="6" customWidth="1"/>
+    <col min="29" max="32" width="4.125" style="23" customWidth="1"/>
     <col min="33" max="36" width="4" style="6" customWidth="1"/>
     <col min="37" max="16384" width="9" style="6"/>
   </cols>
@@ -7651,19 +7963,19 @@
   <dimension ref="A1:FX49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K39" sqref="K39:V39"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23:V23"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17:V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -8302,7 +8614,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:180" ht="32" customHeight="1">
+    <row r="12" spans="1:180" ht="32.1" customHeight="1">
       <c r="A12" s="106" t="s">
         <v>19</v>
       </c>
@@ -8408,7 +8720,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="33.5" customHeight="1">
+    <row r="14" spans="1:180" ht="33.6" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106" t="s">
@@ -8457,7 +8769,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:180" ht="34" customHeight="1">
+    <row r="15" spans="1:180" ht="33.950000000000003" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="108"/>
       <c r="C15" s="106" t="s">
@@ -8604,7 +8916,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" ht="40" customHeight="1">
+    <row r="18" spans="1:40" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="108"/>
       <c r="C18" s="106" t="s">
@@ -8653,7 +8965,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="1:40" ht="49" customHeight="1">
+    <row r="19" spans="1:40" ht="48.95" customHeight="1">
       <c r="A19" s="106"/>
       <c r="B19" s="108"/>
       <c r="C19" s="106" t="s">
@@ -8702,7 +9014,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40" ht="53" customHeight="1">
+    <row r="20" spans="1:40" ht="53.1" customHeight="1">
       <c r="A20" s="106"/>
       <c r="B20" s="108"/>
       <c r="C20" s="106" t="s">
@@ -8751,7 +9063,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40" ht="53.5" customHeight="1">
+    <row r="21" spans="1:40" ht="53.45" customHeight="1">
       <c r="A21" s="106"/>
       <c r="B21" s="108"/>
       <c r="C21" s="106" t="s">
@@ -9013,7 +9325,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
     </row>
-    <row r="27" spans="1:40" ht="35" customHeight="1">
+    <row r="27" spans="1:40" ht="35.1" customHeight="1">
       <c r="A27" s="106"/>
       <c r="B27" s="108"/>
       <c r="C27" s="106"/>
@@ -10243,26 +10555,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:FX52"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K39" sqref="K39:V39"/>
-      <selection pane="bottomLeft" activeCell="W13" sqref="W13:AG13"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23:V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -10901,7 +11213,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:180" ht="41" customHeight="1">
+    <row r="12" spans="1:180" ht="41.1" customHeight="1">
       <c r="A12" s="106" t="s">
         <v>19</v>
       </c>
@@ -10954,7 +11266,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="56" customHeight="1">
+    <row r="13" spans="1:180" ht="56.1" customHeight="1">
       <c r="A13" s="106" t="s">
         <v>50</v>
       </c>
@@ -11007,7 +11319,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="56" customHeight="1">
+    <row r="14" spans="1:180" ht="56.1" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106" t="s">
@@ -11034,19 +11346,19 @@
       <c r="T14" s="110"/>
       <c r="U14" s="110"/>
       <c r="V14" s="111"/>
-      <c r="W14" s="124" t="s">
+      <c r="W14" s="141" t="s">
         <v>600</v>
       </c>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="177"/>
+      <c r="X14" s="142"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="142"/>
+      <c r="AE14" s="142"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="143"/>
       <c r="AH14" s="46" t="s">
         <v>508</v>
       </c>
@@ -11056,7 +11368,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:180" ht="56" customHeight="1">
+    <row r="15" spans="1:180" ht="56.1" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="108"/>
       <c r="C15" s="106" t="s">
@@ -11107,7 +11419,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
     </row>
-    <row r="16" spans="1:180" ht="56" customHeight="1">
+    <row r="16" spans="1:180" ht="56.1" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="108"/>
       <c r="C16" s="106" t="s">
@@ -11158,7 +11470,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40" ht="33.5" customHeight="1">
+    <row r="17" spans="1:40" ht="33.6" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="108"/>
       <c r="C17" s="106" t="s">
@@ -11207,7 +11519,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" ht="35" customHeight="1">
+    <row r="18" spans="1:40" ht="35.1" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="108"/>
       <c r="C18" s="106" t="s">
@@ -11305,7 +11617,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40" ht="32.5" customHeight="1">
+    <row r="20" spans="1:40" ht="32.450000000000003" customHeight="1">
       <c r="A20" s="106"/>
       <c r="B20" s="108"/>
       <c r="C20" s="106" t="s">
@@ -11344,7 +11656,7 @@
       <c r="AD20" s="120"/>
       <c r="AE20" s="120"/>
       <c r="AF20" s="120"/>
-      <c r="AG20" s="177"/>
+      <c r="AG20" s="144"/>
       <c r="AH20" s="46" t="s">
         <v>508</v>
       </c>
@@ -11354,7 +11666,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40" ht="34" customHeight="1">
+    <row r="21" spans="1:40" ht="33.950000000000003" customHeight="1">
       <c r="A21" s="106"/>
       <c r="B21" s="108"/>
       <c r="C21" s="106" t="s">
@@ -11381,19 +11693,19 @@
       <c r="T21" s="110"/>
       <c r="U21" s="110"/>
       <c r="V21" s="111"/>
-      <c r="W21" s="124" t="s">
+      <c r="W21" s="141" t="s">
         <v>598</v>
       </c>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="120"/>
-      <c r="AC21" s="120"/>
-      <c r="AD21" s="120"/>
-      <c r="AE21" s="120"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="177"/>
+      <c r="X21" s="142"/>
+      <c r="Y21" s="142"/>
+      <c r="Z21" s="142"/>
+      <c r="AA21" s="142"/>
+      <c r="AB21" s="142"/>
+      <c r="AC21" s="142"/>
+      <c r="AD21" s="142"/>
+      <c r="AE21" s="142"/>
+      <c r="AF21" s="142"/>
+      <c r="AG21" s="143"/>
       <c r="AH21" s="46" t="s">
         <v>508</v>
       </c>
@@ -11403,7 +11715,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40" ht="34" customHeight="1">
+    <row r="22" spans="1:40" ht="33.950000000000003" customHeight="1">
       <c r="A22" s="106"/>
       <c r="B22" s="108"/>
       <c r="C22" s="106" t="s">
@@ -11501,7 +11813,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
-    <row r="24" spans="1:40" ht="48.5" customHeight="1">
+    <row r="24" spans="1:40" ht="48.6" customHeight="1">
       <c r="A24" s="106"/>
       <c r="B24" s="108"/>
       <c r="C24" s="106" t="s">
@@ -11550,7 +11862,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" spans="1:40" ht="42.5" customHeight="1">
+    <row r="25" spans="1:40" ht="42.6" customHeight="1">
       <c r="A25" s="106"/>
       <c r="B25" s="108"/>
       <c r="C25" s="106" t="s">
@@ -11648,7 +11960,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
     </row>
-    <row r="27" spans="1:40" ht="48.5" customHeight="1">
+    <row r="27" spans="1:40" ht="48.6" customHeight="1">
       <c r="A27" s="106"/>
       <c r="B27" s="108"/>
       <c r="C27" s="106" t="s">
@@ -11697,7 +12009,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6"/>
     </row>
-    <row r="28" spans="1:40" ht="59" customHeight="1">
+    <row r="28" spans="1:40" ht="59.1" customHeight="1">
       <c r="A28" s="106"/>
       <c r="B28" s="108"/>
       <c r="C28" s="106" t="s">
@@ -11746,7 +12058,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6"/>
     </row>
-    <row r="29" spans="1:40" ht="71.5" customHeight="1">
+    <row r="29" spans="1:40" ht="71.45" customHeight="1">
       <c r="A29" s="106"/>
       <c r="B29" s="108"/>
       <c r="C29" s="106" t="s">
@@ -11795,7 +12107,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6"/>
     </row>
-    <row r="30" spans="1:40" ht="46" customHeight="1">
+    <row r="30" spans="1:40" ht="45.95" customHeight="1">
       <c r="A30" s="106"/>
       <c r="B30" s="108"/>
       <c r="C30" s="106" t="s">
@@ -12748,12 +13060,12 @@
     </row>
   </sheetData>
   <mergeCells count="293">
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:V8"/>
-    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:V7"/>
+    <mergeCell ref="W7:AG7"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="R2:T2"/>
@@ -12765,13 +13077,6 @@
     <mergeCell ref="U3:AE4"/>
     <mergeCell ref="AF3:AH4"/>
     <mergeCell ref="AI3:AJ4"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:V7"/>
-    <mergeCell ref="W7:AG7"/>
     <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
@@ -12785,6 +13090,12 @@
     <mergeCell ref="K9:V9"/>
     <mergeCell ref="W9:AG9"/>
     <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:V8"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="AI8:AJ8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:J6"/>
@@ -12794,6 +13105,7 @@
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:V12"/>
     <mergeCell ref="W12:AG12"/>
+    <mergeCell ref="W6:AG6"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -13047,6 +13359,7 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13058,19 +13371,19 @@
   <dimension ref="A1:FX52"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K39" sqref="K39:V39"/>
       <selection pane="bottomLeft" activeCell="K39" sqref="K39:V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -13709,7 +14022,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:180" ht="41" customHeight="1">
+    <row r="12" spans="1:180" ht="41.1" customHeight="1">
       <c r="A12" s="106" t="s">
         <v>19</v>
       </c>
@@ -13762,7 +14075,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="56" customHeight="1">
+    <row r="13" spans="1:180" ht="56.1" customHeight="1">
       <c r="A13" s="106" t="s">
         <v>50</v>
       </c>
@@ -13815,7 +14128,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="56" customHeight="1">
+    <row r="14" spans="1:180" ht="56.1" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106"/>
@@ -13856,7 +14169,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:180" ht="56" customHeight="1">
+    <row r="15" spans="1:180" ht="56.1" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="108"/>
       <c r="C15" s="106"/>
@@ -13897,7 +14210,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
     </row>
-    <row r="16" spans="1:180" ht="56" customHeight="1">
+    <row r="16" spans="1:180" ht="56.1" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="108"/>
       <c r="C16" s="106"/>
@@ -13938,7 +14251,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40" ht="33.5" customHeight="1">
+    <row r="17" spans="1:40" ht="33.6" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="108"/>
       <c r="C17" s="106"/>
@@ -13979,7 +14292,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" ht="35" customHeight="1">
+    <row r="18" spans="1:40" ht="35.1" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="108"/>
       <c r="C18" s="106"/>
@@ -14061,7 +14374,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40" ht="32.5" customHeight="1">
+    <row r="20" spans="1:40" ht="32.450000000000003" customHeight="1">
       <c r="A20" s="106"/>
       <c r="B20" s="108"/>
       <c r="C20" s="106"/>
@@ -14102,7 +14415,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40" ht="34" customHeight="1">
+    <row r="21" spans="1:40" ht="33.950000000000003" customHeight="1">
       <c r="A21" s="106"/>
       <c r="B21" s="108"/>
       <c r="C21" s="106"/>
@@ -14143,7 +14456,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40" ht="34" customHeight="1">
+    <row r="22" spans="1:40" ht="33.950000000000003" customHeight="1">
       <c r="A22" s="106"/>
       <c r="B22" s="108"/>
       <c r="C22" s="106"/>
@@ -14225,7 +14538,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
-    <row r="24" spans="1:40" ht="48.5" customHeight="1">
+    <row r="24" spans="1:40" ht="48.6" customHeight="1">
       <c r="A24" s="106"/>
       <c r="B24" s="108"/>
       <c r="C24" s="106"/>
@@ -14266,7 +14579,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" spans="1:40" ht="42.5" customHeight="1">
+    <row r="25" spans="1:40" ht="42.6" customHeight="1">
       <c r="A25" s="106"/>
       <c r="B25" s="108"/>
       <c r="C25" s="106"/>
@@ -14348,7 +14661,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
     </row>
-    <row r="27" spans="1:40" ht="48.5" customHeight="1">
+    <row r="27" spans="1:40" ht="48.6" customHeight="1">
       <c r="A27" s="106"/>
       <c r="B27" s="108"/>
       <c r="C27" s="106"/>
@@ -14389,7 +14702,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6"/>
     </row>
-    <row r="28" spans="1:40" ht="59" customHeight="1">
+    <row r="28" spans="1:40" ht="59.1" customHeight="1">
       <c r="A28" s="106"/>
       <c r="B28" s="108"/>
       <c r="C28" s="106"/>
@@ -14430,7 +14743,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6"/>
     </row>
-    <row r="29" spans="1:40" ht="71.5" customHeight="1">
+    <row r="29" spans="1:40" ht="71.45" customHeight="1">
       <c r="A29" s="106"/>
       <c r="B29" s="108"/>
       <c r="C29" s="106"/>
@@ -14471,7 +14784,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6"/>
     </row>
-    <row r="30" spans="1:40" ht="46" customHeight="1">
+    <row r="30" spans="1:40" ht="45.95" customHeight="1">
       <c r="A30" s="106"/>
       <c r="B30" s="108"/>
       <c r="C30" s="106"/>
@@ -15656,6 +15969,11 @@
     <mergeCell ref="K14:V14"/>
     <mergeCell ref="W14:AG14"/>
     <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:V9"/>
+    <mergeCell ref="W9:AG9"/>
+    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -15668,19 +15986,6 @@
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:V12"/>
     <mergeCell ref="W12:AG12"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:V8"/>
-    <mergeCell ref="W8:AG8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:V9"/>
-    <mergeCell ref="W9:AG9"/>
-    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:J10"/>
@@ -15697,6 +16002,14 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="K6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:V8"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="R2:T2"/>
@@ -15719,7 +16032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -15728,77 +16041,77 @@
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K39" sqref="K39:V39"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39:V39"/>
+      <selection pane="bottomLeft" activeCell="W25" sqref="W25:AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="50" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="60" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="50" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="61" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="50" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="62" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="50" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="60" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="50" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="61" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="50" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="62" customWidth="1"/>
     <col min="41" max="44" width="4" style="50" customWidth="1"/>
     <col min="45" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:180" ht="12.75" customHeight="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
       <c r="AL1" s="50"/>
       <c r="AM1" s="50"/>
       <c r="AN1" s="50"/>
     </row>
     <row r="2" spans="1:180" ht="13.5" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="51"/>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -15806,50 +16119,50 @@
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
       <c r="Q2" s="53"/>
-      <c r="R2" s="148" t="s">
+      <c r="R2" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="149"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="148" t="s">
+      <c r="S2" s="150"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="149" t="s">
         <v>606</v>
       </c>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="145" t="s">
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="148" t="s">
+      <c r="AG2" s="153"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="150"/>
+      <c r="AJ2" s="151"/>
       <c r="AL2" s="50"/>
       <c r="AM2" s="50"/>
       <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:180" ht="13.5" customHeight="1">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="157"/>
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
@@ -15857,48 +16170,48 @@
       <c r="O3" s="55"/>
       <c r="P3" s="55"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="158" t="s">
+      <c r="R3" s="161" t="s">
         <v>618</v>
       </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="164" t="s">
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="167" t="s">
         <v>617</v>
       </c>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="170" t="s">
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="173" t="s">
         <v>616</v>
       </c>
-      <c r="AG3" s="171"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="170" t="s">
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="173" t="s">
         <v>208</v>
       </c>
-      <c r="AJ3" s="172"/>
+      <c r="AJ3" s="175"/>
       <c r="AL3" s="50"/>
       <c r="AM3" s="50"/>
       <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:180" ht="12">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="157"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="160"/>
       <c r="K4" s="57"/>
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
@@ -15906,25 +16219,25 @@
       <c r="O4" s="58"/>
       <c r="P4" s="58"/>
       <c r="Q4" s="59"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="173"/>
-      <c r="AG4" s="174"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="173"/>
-      <c r="AJ4" s="175"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="171"/>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="172"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="177"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="176"/>
+      <c r="AJ4" s="178"/>
       <c r="AL4" s="50"/>
       <c r="AM4" s="50"/>
       <c r="AN4" s="50"/>
@@ -16132,14 +16445,14 @@
       <c r="B6" s="108"/>
       <c r="C6" s="106"/>
       <c r="D6" s="108"/>
-      <c r="E6" s="141" t="s">
+      <c r="E6" s="145" t="s">
         <v>603</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
       <c r="K6" s="109" t="s">
         <v>599</v>
       </c>
@@ -16177,14 +16490,14 @@
       <c r="B7" s="108"/>
       <c r="C7" s="106"/>
       <c r="D7" s="108"/>
-      <c r="E7" s="141" t="s">
+      <c r="E7" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
       <c r="K7" s="109" t="s">
         <v>615</v>
       </c>
@@ -16222,12 +16535,12 @@
       <c r="B8" s="108"/>
       <c r="C8" s="106"/>
       <c r="D8" s="108"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="109"/>
       <c r="L8" s="110"/>
       <c r="M8" s="110"/>
@@ -16263,12 +16576,12 @@
       <c r="B9" s="108"/>
       <c r="C9" s="106"/>
       <c r="D9" s="108"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
       <c r="K9" s="109"/>
       <c r="L9" s="110"/>
       <c r="M9" s="110"/>
@@ -16304,12 +16617,12 @@
       <c r="B10" s="108"/>
       <c r="C10" s="106"/>
       <c r="D10" s="108"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="143"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
       <c r="K10" s="109"/>
       <c r="L10" s="110"/>
       <c r="M10" s="110"/>
@@ -16345,12 +16658,12 @@
       <c r="B11" s="108"/>
       <c r="C11" s="106"/>
       <c r="D11" s="108"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
       <c r="K11" s="109"/>
       <c r="L11" s="110"/>
       <c r="M11" s="110"/>
@@ -16390,14 +16703,14 @@
         <v>614</v>
       </c>
       <c r="D12" s="108"/>
-      <c r="E12" s="141" t="s">
+      <c r="E12" s="145" t="s">
         <v>613</v>
       </c>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
       <c r="K12" s="109" t="s">
         <v>179</v>
       </c>
@@ -16443,12 +16756,12 @@
         <v>611</v>
       </c>
       <c r="D13" s="108"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="109" t="s">
         <v>180</v>
       </c>
@@ -16492,12 +16805,12 @@
         <v>493</v>
       </c>
       <c r="D14" s="108"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
       <c r="K14" s="109" t="s">
         <v>182</v>
       </c>
@@ -16541,12 +16854,12 @@
         <v>494</v>
       </c>
       <c r="D15" s="108"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
       <c r="K15" s="109" t="s">
         <v>184</v>
       </c>
@@ -16586,14 +16899,14 @@
     <row r="16" spans="1:180" ht="12.75" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="108"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
       <c r="K16" s="109"/>
       <c r="L16" s="110"/>
       <c r="M16" s="110"/>
@@ -16617,7 +16930,7 @@
       <c r="AE16" s="110"/>
       <c r="AF16" s="110"/>
       <c r="AG16" s="111"/>
-      <c r="AH16" s="46" t="s">
+      <c r="AH16" s="180" t="s">
         <v>508</v>
       </c>
       <c r="AI16" s="106"/>
@@ -16633,14 +16946,14 @@
         <v>504</v>
       </c>
       <c r="D17" s="108"/>
-      <c r="E17" s="141" t="s">
+      <c r="E17" s="145" t="s">
         <v>610</v>
       </c>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="143"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
       <c r="K17" s="109" t="s">
         <v>186</v>
       </c>
@@ -16677,19 +16990,19 @@
       <c r="AM17" s="50"/>
       <c r="AN17" s="50"/>
     </row>
-    <row r="18" spans="1:40" ht="31" customHeight="1">
+    <row r="18" spans="1:40" ht="30.95" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="108"/>
       <c r="C18" s="106" t="s">
         <v>505</v>
       </c>
       <c r="D18" s="108"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
       <c r="K18" s="109" t="s">
         <v>609</v>
       </c>
@@ -16727,7 +17040,7 @@
       <c r="AN18" s="50"/>
     </row>
     <row r="19" spans="1:40" ht="25.5" customHeight="1">
-      <c r="A19" s="144" t="s">
+      <c r="A19" s="179" t="s">
         <v>608</v>
       </c>
       <c r="B19" s="108"/>
@@ -16735,12 +17048,12 @@
         <v>506</v>
       </c>
       <c r="D19" s="108"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="109" t="s">
         <v>607</v>
       </c>
@@ -16782,12 +17095,12 @@
       <c r="B20" s="108"/>
       <c r="C20" s="106"/>
       <c r="D20" s="108"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
       <c r="K20" s="109"/>
       <c r="L20" s="110"/>
       <c r="M20" s="110"/>
@@ -16823,12 +17136,12 @@
       <c r="B21" s="108"/>
       <c r="C21" s="106"/>
       <c r="D21" s="108"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
       <c r="K21" s="109"/>
       <c r="L21" s="110"/>
       <c r="M21" s="110"/>
@@ -16864,12 +17177,12 @@
       <c r="B22" s="108"/>
       <c r="C22" s="106"/>
       <c r="D22" s="108"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
       <c r="K22" s="109"/>
       <c r="L22" s="110"/>
       <c r="M22" s="110"/>
@@ -16905,12 +17218,12 @@
       <c r="B23" s="108"/>
       <c r="C23" s="106"/>
       <c r="D23" s="108"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
       <c r="K23" s="109"/>
       <c r="L23" s="110"/>
       <c r="M23" s="110"/>
@@ -16946,12 +17259,12 @@
       <c r="B24" s="108"/>
       <c r="C24" s="106"/>
       <c r="D24" s="108"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
       <c r="K24" s="109"/>
       <c r="L24" s="110"/>
       <c r="M24" s="110"/>
@@ -16987,12 +17300,12 @@
       <c r="B25" s="108"/>
       <c r="C25" s="106"/>
       <c r="D25" s="108"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
       <c r="K25" s="109"/>
       <c r="L25" s="110"/>
       <c r="M25" s="110"/>
@@ -17028,12 +17341,12 @@
       <c r="B26" s="108"/>
       <c r="C26" s="106"/>
       <c r="D26" s="108"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
       <c r="K26" s="109"/>
       <c r="L26" s="110"/>
       <c r="M26" s="110"/>
@@ -17069,12 +17382,12 @@
       <c r="B27" s="108"/>
       <c r="C27" s="106"/>
       <c r="D27" s="108"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="143"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
       <c r="K27" s="109"/>
       <c r="L27" s="110"/>
       <c r="M27" s="110"/>
@@ -17110,12 +17423,12 @@
       <c r="B28" s="108"/>
       <c r="C28" s="106"/>
       <c r="D28" s="108"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="143"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
       <c r="K28" s="109"/>
       <c r="L28" s="110"/>
       <c r="M28" s="110"/>
@@ -17151,12 +17464,12 @@
       <c r="B29" s="108"/>
       <c r="C29" s="106"/>
       <c r="D29" s="108"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="143"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
       <c r="K29" s="109"/>
       <c r="L29" s="110"/>
       <c r="M29" s="110"/>
@@ -17192,12 +17505,12 @@
       <c r="B30" s="108"/>
       <c r="C30" s="106"/>
       <c r="D30" s="108"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="143"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
       <c r="K30" s="109"/>
       <c r="L30" s="110"/>
       <c r="M30" s="110"/>
@@ -17233,12 +17546,12 @@
       <c r="B31" s="108"/>
       <c r="C31" s="106"/>
       <c r="D31" s="108"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
       <c r="K31" s="109"/>
       <c r="L31" s="110"/>
       <c r="M31" s="110"/>
@@ -17274,12 +17587,12 @@
       <c r="B32" s="108"/>
       <c r="C32" s="106"/>
       <c r="D32" s="108"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="143"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="147"/>
       <c r="K32" s="109"/>
       <c r="L32" s="110"/>
       <c r="M32" s="110"/>
@@ -17315,12 +17628,12 @@
       <c r="B33" s="108"/>
       <c r="C33" s="106"/>
       <c r="D33" s="108"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="143"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
       <c r="K33" s="109"/>
       <c r="L33" s="110"/>
       <c r="M33" s="110"/>
@@ -17356,12 +17669,12 @@
       <c r="B34" s="108"/>
       <c r="C34" s="106"/>
       <c r="D34" s="108"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="143"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="147"/>
       <c r="K34" s="109"/>
       <c r="L34" s="110"/>
       <c r="M34" s="110"/>
@@ -17397,12 +17710,12 @@
       <c r="B35" s="108"/>
       <c r="C35" s="106"/>
       <c r="D35" s="108"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="143"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
       <c r="K35" s="109"/>
       <c r="L35" s="110"/>
       <c r="M35" s="110"/>
@@ -17438,12 +17751,12 @@
       <c r="B36" s="108"/>
       <c r="C36" s="106"/>
       <c r="D36" s="108"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="143"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
       <c r="K36" s="109"/>
       <c r="L36" s="110"/>
       <c r="M36" s="110"/>
@@ -17479,12 +17792,12 @@
       <c r="B37" s="108"/>
       <c r="C37" s="106"/>
       <c r="D37" s="108"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="143"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="147"/>
       <c r="K37" s="109"/>
       <c r="L37" s="110"/>
       <c r="M37" s="110"/>
@@ -17520,12 +17833,12 @@
       <c r="B38" s="108"/>
       <c r="C38" s="106"/>
       <c r="D38" s="108"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="143"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="147"/>
       <c r="K38" s="109"/>
       <c r="L38" s="110"/>
       <c r="M38" s="110"/>
@@ -17561,12 +17874,12 @@
       <c r="B39" s="108"/>
       <c r="C39" s="106"/>
       <c r="D39" s="108"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="143"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
       <c r="K39" s="109"/>
       <c r="L39" s="110"/>
       <c r="M39" s="110"/>
@@ -17602,12 +17915,12 @@
       <c r="B40" s="108"/>
       <c r="C40" s="106"/>
       <c r="D40" s="108"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="147"/>
       <c r="K40" s="109"/>
       <c r="L40" s="110"/>
       <c r="M40" s="110"/>
@@ -17643,12 +17956,12 @@
       <c r="B41" s="108"/>
       <c r="C41" s="106"/>
       <c r="D41" s="108"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="143"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="147"/>
       <c r="K41" s="109"/>
       <c r="L41" s="110"/>
       <c r="M41" s="110"/>
@@ -17684,12 +17997,12 @@
       <c r="B42" s="108"/>
       <c r="C42" s="106"/>
       <c r="D42" s="108"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="143"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="147"/>
       <c r="K42" s="109"/>
       <c r="L42" s="110"/>
       <c r="M42" s="110"/>
@@ -17725,12 +18038,12 @@
       <c r="B43" s="108"/>
       <c r="C43" s="106"/>
       <c r="D43" s="108"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="143"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="147"/>
       <c r="K43" s="109"/>
       <c r="L43" s="110"/>
       <c r="M43" s="110"/>
@@ -17766,12 +18079,12 @@
       <c r="B44" s="108"/>
       <c r="C44" s="106"/>
       <c r="D44" s="108"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="143"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="147"/>
       <c r="K44" s="109"/>
       <c r="L44" s="110"/>
       <c r="M44" s="110"/>
@@ -17807,12 +18120,12 @@
       <c r="B45" s="108"/>
       <c r="C45" s="106"/>
       <c r="D45" s="108"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="143"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="147"/>
       <c r="K45" s="109"/>
       <c r="L45" s="110"/>
       <c r="M45" s="110"/>
@@ -18073,17 +18386,6 @@
     <mergeCell ref="K9:V9"/>
     <mergeCell ref="W9:AG9"/>
     <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A3:J4"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="U3:AE4"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="AI3:AJ4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:V6"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
@@ -18096,36 +18398,48 @@
     <mergeCell ref="U2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A3:J4"/>
+    <mergeCell ref="R3:T4"/>
+    <mergeCell ref="U3:AE4"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="AI3:AJ4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="AI6:AJ6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:FX45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K39" sqref="K39:V39"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39:V39"/>
+      <selection pane="bottomLeft" activeCell="W12" sqref="W12:AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -18764,7 +19078,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:180" ht="32.5" customHeight="1">
+    <row r="12" spans="1:180" ht="32.450000000000003" customHeight="1">
       <c r="A12" s="106" t="s">
         <v>19</v>
       </c>
@@ -18781,43 +19095,43 @@
       <c r="H12" s="126"/>
       <c r="I12" s="126"/>
       <c r="J12" s="127"/>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="141" t="s">
         <v>343</v>
       </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="124" t="s">
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="181"/>
+      <c r="S12" s="181"/>
+      <c r="T12" s="181"/>
+      <c r="U12" s="181"/>
+      <c r="V12" s="182"/>
+      <c r="W12" s="141" t="s">
         <v>344</v>
       </c>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="46" t="s">
+      <c r="X12" s="181"/>
+      <c r="Y12" s="181"/>
+      <c r="Z12" s="181"/>
+      <c r="AA12" s="181"/>
+      <c r="AB12" s="181"/>
+      <c r="AC12" s="181"/>
+      <c r="AD12" s="181"/>
+      <c r="AE12" s="181"/>
+      <c r="AF12" s="181"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="180" t="s">
         <v>601</v>
       </c>
-      <c r="AI12" s="106"/>
-      <c r="AJ12" s="108"/>
+      <c r="AI12" s="183"/>
+      <c r="AJ12" s="184"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="32.5" customHeight="1">
+    <row r="13" spans="1:180" ht="32.450000000000003" customHeight="1">
       <c r="A13" s="106" t="s">
         <v>50</v>
       </c>
@@ -20418,17 +20732,6 @@
     <mergeCell ref="K9:V9"/>
     <mergeCell ref="W9:AG9"/>
     <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A3:J4"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="U3:AE4"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="AI3:AJ4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:V6"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
@@ -20441,17 +20744,29 @@
     <mergeCell ref="U2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A3:J4"/>
+    <mergeCell ref="R3:T4"/>
+    <mergeCell ref="U3:AE4"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="AI3:AJ4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="AI6:AJ6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -20460,17 +20775,17 @@
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K39" sqref="K39:V39"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39:V39"/>
+      <selection pane="bottomLeft" activeCell="W21" sqref="W21:AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -21109,7 +21424,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:180" ht="32" customHeight="1">
+    <row r="12" spans="1:180" ht="32.1" customHeight="1">
       <c r="A12" s="106" t="s">
         <v>19</v>
       </c>
@@ -21162,7 +21477,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="34" customHeight="1">
+    <row r="13" spans="1:180" ht="33.950000000000003" customHeight="1">
       <c r="A13" s="106" t="s">
         <v>612</v>
       </c>
@@ -21191,19 +21506,19 @@
       <c r="T13" s="110"/>
       <c r="U13" s="110"/>
       <c r="V13" s="111"/>
-      <c r="W13" s="109" t="s">
+      <c r="W13" s="185" t="s">
         <v>211</v>
       </c>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="110"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="111"/>
+      <c r="X13" s="181"/>
+      <c r="Y13" s="181"/>
+      <c r="Z13" s="181"/>
+      <c r="AA13" s="181"/>
+      <c r="AB13" s="181"/>
+      <c r="AC13" s="181"/>
+      <c r="AD13" s="181"/>
+      <c r="AE13" s="181"/>
+      <c r="AF13" s="181"/>
+      <c r="AG13" s="182"/>
       <c r="AH13" s="46" t="s">
         <v>508</v>
       </c>
@@ -22761,17 +23076,6 @@
     <mergeCell ref="K9:V9"/>
     <mergeCell ref="W9:AG9"/>
     <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A3:J4"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="U3:AE4"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="AI3:AJ4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:V6"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
@@ -22784,17 +23088,29 @@
     <mergeCell ref="U2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A3:J4"/>
+    <mergeCell ref="R3:T4"/>
+    <mergeCell ref="U3:AE4"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="AI3:AJ4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="AI6:AJ6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -22803,17 +23119,17 @@
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K39" sqref="K39:V39"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39:V39"/>
+      <selection pane="bottomLeft" activeCell="W22" sqref="W22:AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -23483,19 +23799,19 @@
       <c r="T12" s="110"/>
       <c r="U12" s="110"/>
       <c r="V12" s="111"/>
-      <c r="W12" s="109" t="s">
+      <c r="W12" s="185" t="s">
         <v>192</v>
       </c>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="111"/>
+      <c r="X12" s="181"/>
+      <c r="Y12" s="181"/>
+      <c r="Z12" s="181"/>
+      <c r="AA12" s="181"/>
+      <c r="AB12" s="181"/>
+      <c r="AC12" s="181"/>
+      <c r="AD12" s="181"/>
+      <c r="AE12" s="181"/>
+      <c r="AF12" s="181"/>
+      <c r="AG12" s="182"/>
       <c r="AH12" s="46" t="s">
         <v>601</v>
       </c>
@@ -25399,6 +25715,11 @@
     <mergeCell ref="K14:V14"/>
     <mergeCell ref="W14:AG14"/>
     <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:V9"/>
+    <mergeCell ref="W9:AG9"/>
+    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -25411,19 +25732,6 @@
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:V12"/>
     <mergeCell ref="W12:AG12"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:V8"/>
-    <mergeCell ref="W8:AG8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:V9"/>
-    <mergeCell ref="W9:AG9"/>
-    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:J10"/>
@@ -25440,6 +25748,14 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="K6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:V8"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="R2:T2"/>
@@ -25458,6 +25774,7 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25476,72 +25793,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="50" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="60" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="50" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="61" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="50" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="62" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="50" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="60" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="50" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="61" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="50" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="62" customWidth="1"/>
     <col min="41" max="44" width="4" style="50" customWidth="1"/>
     <col min="45" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:180" ht="12.75" customHeight="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
       <c r="AL1" s="50"/>
       <c r="AM1" s="50"/>
       <c r="AN1" s="50"/>
     </row>
     <row r="2" spans="1:180" ht="13.5" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="51"/>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -25549,50 +25866,50 @@
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
       <c r="Q2" s="53"/>
-      <c r="R2" s="148" t="s">
+      <c r="R2" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="149"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="148" t="s">
+      <c r="S2" s="150"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="149" t="s">
         <v>606</v>
       </c>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="145" t="s">
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="148" t="s">
+      <c r="AG2" s="153"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="150"/>
+      <c r="AJ2" s="151"/>
       <c r="AL2" s="50"/>
       <c r="AM2" s="50"/>
       <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:180" ht="13.5" customHeight="1">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="157"/>
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
@@ -25600,48 +25917,48 @@
       <c r="O3" s="55"/>
       <c r="P3" s="55"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="158" t="s">
+      <c r="R3" s="161" t="s">
         <v>638</v>
       </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="164" t="s">
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="167" t="s">
         <v>637</v>
       </c>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="170" t="s">
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="173" t="s">
         <v>604</v>
       </c>
-      <c r="AG3" s="171"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="170" t="s">
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="173" t="s">
         <v>208</v>
       </c>
-      <c r="AJ3" s="172"/>
+      <c r="AJ3" s="175"/>
       <c r="AL3" s="50"/>
       <c r="AM3" s="50"/>
       <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:180" ht="12">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="157"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="160"/>
       <c r="K4" s="57"/>
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
@@ -25649,25 +25966,25 @@
       <c r="O4" s="58"/>
       <c r="P4" s="58"/>
       <c r="Q4" s="59"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="173"/>
-      <c r="AG4" s="174"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="173"/>
-      <c r="AJ4" s="175"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="171"/>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="172"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="177"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="176"/>
+      <c r="AJ4" s="178"/>
       <c r="AL4" s="50"/>
       <c r="AM4" s="50"/>
       <c r="AN4" s="50"/>
@@ -25875,14 +26192,14 @@
       <c r="B6" s="108"/>
       <c r="C6" s="106"/>
       <c r="D6" s="108"/>
-      <c r="E6" s="141" t="s">
+      <c r="E6" s="145" t="s">
         <v>603</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
       <c r="K6" s="109" t="s">
         <v>636</v>
       </c>
@@ -25920,12 +26237,12 @@
       <c r="B7" s="108"/>
       <c r="C7" s="106"/>
       <c r="D7" s="108"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
       <c r="K7" s="109"/>
       <c r="L7" s="110"/>
       <c r="M7" s="110"/>
@@ -25961,12 +26278,12 @@
       <c r="B8" s="108"/>
       <c r="C8" s="106"/>
       <c r="D8" s="108"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="109"/>
       <c r="L8" s="110"/>
       <c r="M8" s="110"/>
@@ -26002,12 +26319,12 @@
       <c r="B9" s="108"/>
       <c r="C9" s="106"/>
       <c r="D9" s="108"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
       <c r="K9" s="109"/>
       <c r="L9" s="110"/>
       <c r="M9" s="110"/>
@@ -26043,12 +26360,12 @@
       <c r="B10" s="108"/>
       <c r="C10" s="106"/>
       <c r="D10" s="108"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="143"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
       <c r="K10" s="109"/>
       <c r="L10" s="110"/>
       <c r="M10" s="110"/>
@@ -26084,12 +26401,12 @@
       <c r="B11" s="108"/>
       <c r="C11" s="106"/>
       <c r="D11" s="108"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
       <c r="K11" s="109"/>
       <c r="L11" s="110"/>
       <c r="M11" s="110"/>
@@ -26129,14 +26446,14 @@
         <v>635</v>
       </c>
       <c r="D12" s="108"/>
-      <c r="E12" s="141" t="s">
+      <c r="E12" s="145" t="s">
         <v>634</v>
       </c>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
       <c r="K12" s="109" t="s">
         <v>179</v>
       </c>
@@ -26173,7 +26490,7 @@
       <c r="AM12" s="50"/>
       <c r="AN12" s="50"/>
     </row>
-    <row r="13" spans="1:180" ht="26" customHeight="1">
+    <row r="13" spans="1:180" ht="26.1" customHeight="1">
       <c r="A13" s="106" t="s">
         <v>633</v>
       </c>
@@ -26182,14 +26499,14 @@
         <v>632</v>
       </c>
       <c r="D13" s="108"/>
-      <c r="E13" s="141" t="s">
+      <c r="E13" s="145" t="s">
         <v>631</v>
       </c>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="109" t="s">
         <v>190</v>
       </c>
@@ -26231,12 +26548,12 @@
       <c r="B14" s="108"/>
       <c r="C14" s="106"/>
       <c r="D14" s="108"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
       <c r="K14" s="109"/>
       <c r="L14" s="110"/>
       <c r="M14" s="110"/>
@@ -26272,12 +26589,12 @@
       <c r="B15" s="108"/>
       <c r="C15" s="106"/>
       <c r="D15" s="108"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
       <c r="K15" s="109"/>
       <c r="L15" s="110"/>
       <c r="M15" s="110"/>
@@ -26313,12 +26630,12 @@
       <c r="B16" s="108"/>
       <c r="C16" s="106"/>
       <c r="D16" s="108"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
       <c r="K16" s="109"/>
       <c r="L16" s="110"/>
       <c r="M16" s="110"/>
@@ -26354,12 +26671,12 @@
       <c r="B17" s="108"/>
       <c r="C17" s="106"/>
       <c r="D17" s="108"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="143"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
       <c r="K17" s="109"/>
       <c r="L17" s="110"/>
       <c r="M17" s="110"/>
@@ -26395,12 +26712,12 @@
       <c r="B18" s="108"/>
       <c r="C18" s="106"/>
       <c r="D18" s="108"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
       <c r="K18" s="109"/>
       <c r="L18" s="110"/>
       <c r="M18" s="110"/>
@@ -26436,12 +26753,12 @@
       <c r="B19" s="108"/>
       <c r="C19" s="106"/>
       <c r="D19" s="108"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="143"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
       <c r="K19" s="109"/>
       <c r="L19" s="110"/>
       <c r="M19" s="110"/>
@@ -26477,12 +26794,12 @@
       <c r="B20" s="108"/>
       <c r="C20" s="106"/>
       <c r="D20" s="108"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
       <c r="K20" s="109"/>
       <c r="L20" s="110"/>
       <c r="M20" s="110"/>
@@ -26518,12 +26835,12 @@
       <c r="B21" s="108"/>
       <c r="C21" s="106"/>
       <c r="D21" s="108"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
       <c r="K21" s="109"/>
       <c r="L21" s="110"/>
       <c r="M21" s="110"/>
@@ -26559,12 +26876,12 @@
       <c r="B22" s="108"/>
       <c r="C22" s="106"/>
       <c r="D22" s="108"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
       <c r="K22" s="109"/>
       <c r="L22" s="110"/>
       <c r="M22" s="110"/>
@@ -26600,12 +26917,12 @@
       <c r="B23" s="108"/>
       <c r="C23" s="106"/>
       <c r="D23" s="108"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
       <c r="K23" s="109"/>
       <c r="L23" s="110"/>
       <c r="M23" s="110"/>
@@ -26641,12 +26958,12 @@
       <c r="B24" s="108"/>
       <c r="C24" s="106"/>
       <c r="D24" s="108"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
       <c r="K24" s="109"/>
       <c r="L24" s="110"/>
       <c r="M24" s="110"/>
@@ -26682,12 +26999,12 @@
       <c r="B25" s="108"/>
       <c r="C25" s="106"/>
       <c r="D25" s="108"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
       <c r="K25" s="109"/>
       <c r="L25" s="110"/>
       <c r="M25" s="110"/>
@@ -26723,12 +27040,12 @@
       <c r="B26" s="108"/>
       <c r="C26" s="106"/>
       <c r="D26" s="108"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
       <c r="K26" s="109"/>
       <c r="L26" s="110"/>
       <c r="M26" s="110"/>
@@ -26764,12 +27081,12 @@
       <c r="B27" s="108"/>
       <c r="C27" s="106"/>
       <c r="D27" s="108"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="143"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
       <c r="K27" s="109"/>
       <c r="L27" s="110"/>
       <c r="M27" s="110"/>
@@ -26805,12 +27122,12 @@
       <c r="B28" s="108"/>
       <c r="C28" s="106"/>
       <c r="D28" s="108"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="143"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
       <c r="K28" s="109"/>
       <c r="L28" s="110"/>
       <c r="M28" s="110"/>
@@ -26846,12 +27163,12 @@
       <c r="B29" s="108"/>
       <c r="C29" s="106"/>
       <c r="D29" s="108"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="143"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
       <c r="K29" s="109"/>
       <c r="L29" s="110"/>
       <c r="M29" s="110"/>
@@ -26887,12 +27204,12 @@
       <c r="B30" s="108"/>
       <c r="C30" s="106"/>
       <c r="D30" s="108"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="143"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
       <c r="K30" s="109"/>
       <c r="L30" s="110"/>
       <c r="M30" s="110"/>
@@ -26928,12 +27245,12 @@
       <c r="B31" s="108"/>
       <c r="C31" s="106"/>
       <c r="D31" s="108"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
       <c r="K31" s="109"/>
       <c r="L31" s="110"/>
       <c r="M31" s="110"/>
@@ -26969,12 +27286,12 @@
       <c r="B32" s="108"/>
       <c r="C32" s="106"/>
       <c r="D32" s="108"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="143"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="147"/>
       <c r="K32" s="109"/>
       <c r="L32" s="110"/>
       <c r="M32" s="110"/>
@@ -27010,12 +27327,12 @@
       <c r="B33" s="108"/>
       <c r="C33" s="106"/>
       <c r="D33" s="108"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="143"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
       <c r="K33" s="109"/>
       <c r="L33" s="110"/>
       <c r="M33" s="110"/>
@@ -27051,12 +27368,12 @@
       <c r="B34" s="108"/>
       <c r="C34" s="106"/>
       <c r="D34" s="108"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="143"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="147"/>
       <c r="K34" s="109"/>
       <c r="L34" s="110"/>
       <c r="M34" s="110"/>
@@ -27092,12 +27409,12 @@
       <c r="B35" s="108"/>
       <c r="C35" s="106"/>
       <c r="D35" s="108"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="143"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
       <c r="K35" s="109"/>
       <c r="L35" s="110"/>
       <c r="M35" s="110"/>
@@ -27133,12 +27450,12 @@
       <c r="B36" s="108"/>
       <c r="C36" s="106"/>
       <c r="D36" s="108"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="143"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
       <c r="K36" s="109"/>
       <c r="L36" s="110"/>
       <c r="M36" s="110"/>
@@ -27174,12 +27491,12 @@
       <c r="B37" s="108"/>
       <c r="C37" s="106"/>
       <c r="D37" s="108"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="143"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="147"/>
       <c r="K37" s="109"/>
       <c r="L37" s="110"/>
       <c r="M37" s="110"/>
@@ -27215,12 +27532,12 @@
       <c r="B38" s="108"/>
       <c r="C38" s="106"/>
       <c r="D38" s="108"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="143"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="147"/>
       <c r="K38" s="109"/>
       <c r="L38" s="110"/>
       <c r="M38" s="110"/>
@@ -27256,12 +27573,12 @@
       <c r="B39" s="108"/>
       <c r="C39" s="106"/>
       <c r="D39" s="108"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="143"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
       <c r="K39" s="109"/>
       <c r="L39" s="110"/>
       <c r="M39" s="110"/>
@@ -27297,12 +27614,12 @@
       <c r="B40" s="108"/>
       <c r="C40" s="106"/>
       <c r="D40" s="108"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="147"/>
       <c r="K40" s="109"/>
       <c r="L40" s="110"/>
       <c r="M40" s="110"/>
@@ -27338,12 +27655,12 @@
       <c r="B41" s="108"/>
       <c r="C41" s="106"/>
       <c r="D41" s="108"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="143"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="147"/>
       <c r="K41" s="109"/>
       <c r="L41" s="110"/>
       <c r="M41" s="110"/>
@@ -27379,12 +27696,12 @@
       <c r="B42" s="108"/>
       <c r="C42" s="106"/>
       <c r="D42" s="108"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="143"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="147"/>
       <c r="K42" s="109"/>
       <c r="L42" s="110"/>
       <c r="M42" s="110"/>
@@ -27420,12 +27737,12 @@
       <c r="B43" s="108"/>
       <c r="C43" s="106"/>
       <c r="D43" s="108"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="143"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="147"/>
       <c r="K43" s="109"/>
       <c r="L43" s="110"/>
       <c r="M43" s="110"/>
@@ -27461,12 +27778,12 @@
       <c r="B44" s="108"/>
       <c r="C44" s="106"/>
       <c r="D44" s="108"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="143"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="147"/>
       <c r="K44" s="109"/>
       <c r="L44" s="110"/>
       <c r="M44" s="110"/>
@@ -27502,12 +27819,12 @@
       <c r="B45" s="108"/>
       <c r="C45" s="106"/>
       <c r="D45" s="108"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="143"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="147"/>
       <c r="K45" s="109"/>
       <c r="L45" s="110"/>
       <c r="M45" s="110"/>
@@ -27768,17 +28085,6 @@
     <mergeCell ref="K9:V9"/>
     <mergeCell ref="W9:AG9"/>
     <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A3:J4"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="U3:AE4"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="AI3:AJ4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:V6"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
@@ -27791,6 +28097,17 @@
     <mergeCell ref="U2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A3:J4"/>
+    <mergeCell ref="R3:T4"/>
+    <mergeCell ref="U3:AE4"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="AI3:AJ4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="AI6:AJ6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -27810,17 +28127,17 @@
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K39" sqref="K39:V39"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39:V39"/>
+      <selection pane="bottomLeft" activeCell="W14" sqref="W14:AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -28565,7 +28882,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="26.5" customHeight="1">
+    <row r="14" spans="1:180" ht="26.45" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106" t="s">
@@ -30117,17 +30434,6 @@
     <mergeCell ref="K9:V9"/>
     <mergeCell ref="W9:AG9"/>
     <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A3:J4"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="U3:AE4"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="AI3:AJ4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:V6"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
@@ -30140,6 +30446,17 @@
     <mergeCell ref="U2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A3:J4"/>
+    <mergeCell ref="R3:T4"/>
+    <mergeCell ref="U3:AE4"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="AI3:AJ4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="AI6:AJ6"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -30150,86 +30467,86 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:FX59"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K39" sqref="K39:V39"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39:V39"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25:V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="50" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="60" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="50" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="61" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="50" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="62" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="50" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="60" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="50" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="61" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="50" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="62" customWidth="1"/>
     <col min="41" max="44" width="4" style="50" customWidth="1"/>
     <col min="45" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:180" ht="12.75" customHeight="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
       <c r="AL1" s="50"/>
       <c r="AM1" s="50"/>
       <c r="AN1" s="50"/>
     </row>
     <row r="2" spans="1:180" ht="13.5" customHeight="1">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="151"/>
       <c r="K2" s="51"/>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -30237,50 +30554,50 @@
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
       <c r="Q2" s="53"/>
-      <c r="R2" s="148" t="s">
+      <c r="R2" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="149"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="148" t="s">
+      <c r="S2" s="150"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="149" t="s">
         <v>661</v>
       </c>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="145" t="s">
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="150"/>
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="150"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="151"/>
-      <c r="AH2" s="146"/>
-      <c r="AI2" s="148" t="s">
+      <c r="AG2" s="153"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="150"/>
+      <c r="AJ2" s="151"/>
       <c r="AL2" s="50"/>
       <c r="AM2" s="50"/>
       <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:180" ht="13.5" customHeight="1">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="157"/>
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
@@ -30288,48 +30605,48 @@
       <c r="O3" s="55"/>
       <c r="P3" s="55"/>
       <c r="Q3" s="56"/>
-      <c r="R3" s="158" t="s">
+      <c r="R3" s="161" t="s">
         <v>660</v>
       </c>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="164" t="s">
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="167" t="s">
         <v>659</v>
       </c>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="170" t="s">
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="173" t="s">
         <v>658</v>
       </c>
-      <c r="AG3" s="171"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="170" t="s">
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="AJ3" s="172"/>
+      <c r="AJ3" s="175"/>
       <c r="AL3" s="50"/>
       <c r="AM3" s="50"/>
       <c r="AN3" s="50"/>
     </row>
     <row r="4" spans="1:180" ht="12">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="157"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="160"/>
       <c r="K4" s="57"/>
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
@@ -30337,25 +30654,25 @@
       <c r="O4" s="58"/>
       <c r="P4" s="58"/>
       <c r="Q4" s="59"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="173"/>
-      <c r="AG4" s="174"/>
-      <c r="AH4" s="175"/>
-      <c r="AI4" s="173"/>
-      <c r="AJ4" s="175"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="171"/>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="172"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="177"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="176"/>
+      <c r="AJ4" s="178"/>
       <c r="AL4" s="50"/>
       <c r="AM4" s="50"/>
       <c r="AN4" s="50"/>
@@ -30563,14 +30880,14 @@
       <c r="B6" s="108"/>
       <c r="C6" s="106"/>
       <c r="D6" s="108"/>
-      <c r="E6" s="141" t="s">
+      <c r="E6" s="145" t="s">
         <v>603</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
       <c r="K6" s="109" t="s">
         <v>599</v>
       </c>
@@ -30608,12 +30925,12 @@
       <c r="B7" s="108"/>
       <c r="C7" s="106"/>
       <c r="D7" s="108"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
       <c r="K7" s="109"/>
       <c r="L7" s="110"/>
       <c r="M7" s="110"/>
@@ -30649,12 +30966,12 @@
       <c r="B8" s="108"/>
       <c r="C8" s="106"/>
       <c r="D8" s="108"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="109"/>
       <c r="L8" s="110"/>
       <c r="M8" s="110"/>
@@ -30690,12 +31007,12 @@
       <c r="B9" s="108"/>
       <c r="C9" s="106"/>
       <c r="D9" s="108"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
       <c r="K9" s="109"/>
       <c r="L9" s="110"/>
       <c r="M9" s="110"/>
@@ -30731,12 +31048,12 @@
       <c r="B10" s="108"/>
       <c r="C10" s="106"/>
       <c r="D10" s="108"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="143"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
       <c r="K10" s="109"/>
       <c r="L10" s="110"/>
       <c r="M10" s="110"/>
@@ -30772,12 +31089,12 @@
       <c r="B11" s="108"/>
       <c r="C11" s="106"/>
       <c r="D11" s="108"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="147"/>
       <c r="K11" s="109"/>
       <c r="L11" s="110"/>
       <c r="M11" s="110"/>
@@ -30808,7 +31125,7 @@
       <c r="AM11" s="50"/>
       <c r="AN11" s="50"/>
     </row>
-    <row r="12" spans="1:180" ht="24.5" customHeight="1">
+    <row r="12" spans="1:180" ht="24.6" customHeight="1">
       <c r="A12" s="106" t="s">
         <v>19</v>
       </c>
@@ -30817,14 +31134,14 @@
         <v>657</v>
       </c>
       <c r="D12" s="108"/>
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="186" t="s">
         <v>542</v>
       </c>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="188"/>
       <c r="K12" s="109" t="s">
         <v>541</v>
       </c>
@@ -30870,14 +31187,14 @@
         <v>300</v>
       </c>
       <c r="D13" s="108"/>
-      <c r="E13" s="141" t="s">
+      <c r="E13" s="189" t="s">
         <v>656</v>
       </c>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="188"/>
       <c r="K13" s="109" t="s">
         <v>648</v>
       </c>
@@ -30921,14 +31238,14 @@
         <v>539</v>
       </c>
       <c r="D14" s="108"/>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="189" t="s">
         <v>654</v>
       </c>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="188"/>
       <c r="K14" s="109" t="s">
         <v>648</v>
       </c>
@@ -30970,12 +31287,12 @@
       <c r="B15" s="108"/>
       <c r="C15" s="106"/>
       <c r="D15" s="108"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="146"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="192"/>
       <c r="K15" s="109" t="s">
         <v>535</v>
       </c>
@@ -31017,12 +31334,12 @@
       <c r="B16" s="108"/>
       <c r="C16" s="106"/>
       <c r="D16" s="108"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
+      <c r="J16" s="188"/>
       <c r="K16" s="109" t="s">
         <v>532</v>
       </c>
@@ -31066,14 +31383,14 @@
         <v>537</v>
       </c>
       <c r="D17" s="108"/>
-      <c r="E17" s="141" t="s">
+      <c r="E17" s="189" t="s">
         <v>653</v>
       </c>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="143"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
+      <c r="J17" s="188"/>
       <c r="K17" s="109" t="s">
         <v>648</v>
       </c>
@@ -31088,19 +31405,19 @@
       <c r="T17" s="110"/>
       <c r="U17" s="110"/>
       <c r="V17" s="111"/>
-      <c r="W17" s="109" t="s">
+      <c r="W17" s="185" t="s">
         <v>647</v>
       </c>
-      <c r="X17" s="110"/>
-      <c r="Y17" s="110"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="111"/>
+      <c r="X17" s="181"/>
+      <c r="Y17" s="181"/>
+      <c r="Z17" s="181"/>
+      <c r="AA17" s="181"/>
+      <c r="AB17" s="181"/>
+      <c r="AC17" s="181"/>
+      <c r="AD17" s="181"/>
+      <c r="AE17" s="181"/>
+      <c r="AF17" s="181"/>
+      <c r="AG17" s="182"/>
       <c r="AH17" s="46" t="s">
         <v>601</v>
       </c>
@@ -31115,12 +31432,12 @@
       <c r="B18" s="108"/>
       <c r="C18" s="106"/>
       <c r="D18" s="108"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="187"/>
+      <c r="J18" s="188"/>
       <c r="K18" s="109" t="s">
         <v>535</v>
       </c>
@@ -31162,12 +31479,12 @@
       <c r="B19" s="108"/>
       <c r="C19" s="106"/>
       <c r="D19" s="108"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="146"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="192"/>
       <c r="K19" s="109" t="s">
         <v>532</v>
       </c>
@@ -31211,14 +31528,14 @@
         <v>652</v>
       </c>
       <c r="D20" s="108"/>
-      <c r="E20" s="141" t="s">
+      <c r="E20" s="189" t="s">
         <v>651</v>
       </c>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="188"/>
       <c r="K20" s="109" t="s">
         <v>648</v>
       </c>
@@ -31255,17 +31572,17 @@
       <c r="AM20" s="50"/>
       <c r="AN20" s="50"/>
     </row>
-    <row r="21" spans="1:40" ht="23.5" customHeight="1">
+    <row r="21" spans="1:40" ht="23.45" customHeight="1">
       <c r="A21" s="106"/>
       <c r="B21" s="108"/>
       <c r="C21" s="106"/>
       <c r="D21" s="108"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="188"/>
       <c r="K21" s="109" t="s">
         <v>535</v>
       </c>
@@ -31307,12 +31624,12 @@
       <c r="B22" s="108"/>
       <c r="C22" s="106"/>
       <c r="D22" s="108"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="188"/>
       <c r="K22" s="109" t="s">
         <v>532</v>
       </c>
@@ -31356,14 +31673,14 @@
         <v>650</v>
       </c>
       <c r="D23" s="108"/>
-      <c r="E23" s="141" t="s">
+      <c r="E23" s="189" t="s">
         <v>649</v>
       </c>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="188"/>
       <c r="K23" s="109" t="s">
         <v>648</v>
       </c>
@@ -31400,17 +31717,17 @@
       <c r="AM23" s="50"/>
       <c r="AN23" s="50"/>
     </row>
-    <row r="24" spans="1:40" ht="23.5" customHeight="1">
+    <row r="24" spans="1:40" ht="23.45" customHeight="1">
       <c r="A24" s="106"/>
       <c r="B24" s="108"/>
       <c r="C24" s="106"/>
       <c r="D24" s="108"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
+      <c r="E24" s="189"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="188"/>
       <c r="K24" s="109" t="s">
         <v>535</v>
       </c>
@@ -31452,12 +31769,12 @@
       <c r="B25" s="108"/>
       <c r="C25" s="106"/>
       <c r="D25" s="108"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="188"/>
       <c r="K25" s="109" t="s">
         <v>535</v>
       </c>
@@ -31499,12 +31816,12 @@
       <c r="B26" s="108"/>
       <c r="C26" s="106"/>
       <c r="D26" s="108"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="188"/>
       <c r="K26" s="109" t="s">
         <v>532</v>
       </c>
@@ -31546,12 +31863,12 @@
       <c r="B27" s="108"/>
       <c r="C27" s="106"/>
       <c r="D27" s="108"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="143"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="187"/>
+      <c r="J27" s="188"/>
       <c r="K27" s="109" t="s">
         <v>532</v>
       </c>
@@ -31593,12 +31910,12 @@
       <c r="B28" s="108"/>
       <c r="C28" s="106"/>
       <c r="D28" s="108"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="143"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
       <c r="K28" s="109"/>
       <c r="L28" s="110"/>
       <c r="M28" s="110"/>
@@ -31634,12 +31951,12 @@
       <c r="B29" s="108"/>
       <c r="C29" s="106"/>
       <c r="D29" s="108"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="143"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
       <c r="K29" s="109"/>
       <c r="L29" s="110"/>
       <c r="M29" s="110"/>
@@ -31675,12 +31992,12 @@
       <c r="B30" s="108"/>
       <c r="C30" s="106"/>
       <c r="D30" s="108"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="143"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
       <c r="K30" s="109"/>
       <c r="L30" s="110"/>
       <c r="M30" s="110"/>
@@ -31716,12 +32033,12 @@
       <c r="B31" s="108"/>
       <c r="C31" s="106"/>
       <c r="D31" s="108"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
       <c r="K31" s="109"/>
       <c r="L31" s="110"/>
       <c r="M31" s="110"/>
@@ -31757,12 +32074,12 @@
       <c r="B32" s="108"/>
       <c r="C32" s="106"/>
       <c r="D32" s="108"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="143"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="147"/>
       <c r="K32" s="109"/>
       <c r="L32" s="110"/>
       <c r="M32" s="110"/>
@@ -31798,12 +32115,12 @@
       <c r="B33" s="108"/>
       <c r="C33" s="106"/>
       <c r="D33" s="108"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="143"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
       <c r="K33" s="109"/>
       <c r="L33" s="110"/>
       <c r="M33" s="110"/>
@@ -31839,12 +32156,12 @@
       <c r="B34" s="108"/>
       <c r="C34" s="106"/>
       <c r="D34" s="108"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="143"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="147"/>
       <c r="K34" s="109"/>
       <c r="L34" s="110"/>
       <c r="M34" s="110"/>
@@ -31880,12 +32197,12 @@
       <c r="B35" s="108"/>
       <c r="C35" s="106"/>
       <c r="D35" s="108"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="143"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
       <c r="K35" s="109"/>
       <c r="L35" s="110"/>
       <c r="M35" s="110"/>
@@ -31921,12 +32238,12 @@
       <c r="B36" s="108"/>
       <c r="C36" s="106"/>
       <c r="D36" s="108"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="143"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
       <c r="K36" s="109"/>
       <c r="L36" s="110"/>
       <c r="M36" s="110"/>
@@ -31962,12 +32279,12 @@
       <c r="B37" s="108"/>
       <c r="C37" s="106"/>
       <c r="D37" s="108"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="143"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="147"/>
       <c r="K37" s="109"/>
       <c r="L37" s="110"/>
       <c r="M37" s="110"/>
@@ -32003,12 +32320,12 @@
       <c r="B38" s="108"/>
       <c r="C38" s="106"/>
       <c r="D38" s="108"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="143"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="147"/>
       <c r="K38" s="109"/>
       <c r="L38" s="110"/>
       <c r="M38" s="110"/>
@@ -32044,12 +32361,12 @@
       <c r="B39" s="108"/>
       <c r="C39" s="106"/>
       <c r="D39" s="108"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="143"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
       <c r="K39" s="109"/>
       <c r="L39" s="110"/>
       <c r="M39" s="110"/>
@@ -32085,12 +32402,12 @@
       <c r="B40" s="108"/>
       <c r="C40" s="106"/>
       <c r="D40" s="108"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="147"/>
       <c r="K40" s="109"/>
       <c r="L40" s="110"/>
       <c r="M40" s="110"/>
@@ -32126,12 +32443,12 @@
       <c r="B41" s="108"/>
       <c r="C41" s="106"/>
       <c r="D41" s="108"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="143"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="147"/>
       <c r="K41" s="109"/>
       <c r="L41" s="110"/>
       <c r="M41" s="110"/>
@@ -32167,12 +32484,12 @@
       <c r="B42" s="108"/>
       <c r="C42" s="106"/>
       <c r="D42" s="108"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="143"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="147"/>
       <c r="K42" s="109"/>
       <c r="L42" s="110"/>
       <c r="M42" s="110"/>
@@ -32208,12 +32525,12 @@
       <c r="B43" s="108"/>
       <c r="C43" s="106"/>
       <c r="D43" s="108"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="143"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="147"/>
       <c r="K43" s="109"/>
       <c r="L43" s="110"/>
       <c r="M43" s="110"/>
@@ -32249,12 +32566,12 @@
       <c r="B44" s="108"/>
       <c r="C44" s="106"/>
       <c r="D44" s="108"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="143"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="147"/>
       <c r="K44" s="109"/>
       <c r="L44" s="110"/>
       <c r="M44" s="110"/>
@@ -32290,12 +32607,12 @@
       <c r="B45" s="108"/>
       <c r="C45" s="106"/>
       <c r="D45" s="108"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="143"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="147"/>
       <c r="K45" s="109"/>
       <c r="L45" s="110"/>
       <c r="M45" s="110"/>
@@ -32550,6 +32867,10 @@
     <mergeCell ref="K11:V11"/>
     <mergeCell ref="W11:AG11"/>
     <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:V6"/>
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
@@ -32564,15 +32885,6 @@
     <mergeCell ref="K9:V9"/>
     <mergeCell ref="W9:AG9"/>
     <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A3:J4"/>
-    <mergeCell ref="R3:T4"/>
-    <mergeCell ref="U3:AE4"/>
-    <mergeCell ref="AF3:AH4"/>
-    <mergeCell ref="AI3:AJ4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:V6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:J7"/>
@@ -32585,12 +32897,18 @@
     <mergeCell ref="U2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A3:J4"/>
+    <mergeCell ref="R3:T4"/>
+    <mergeCell ref="U3:AE4"/>
+    <mergeCell ref="AF3:AH4"/>
+    <mergeCell ref="AI3:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -32599,25 +32917,25 @@
   <dimension ref="A1:FW46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
       <selection pane="bottomLeft" activeCell="AL45" sqref="AL45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="4.08984375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="4.08984375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.08984375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.08984375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.08984375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="7.26953125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="8.90625" style="6" customWidth="1"/>
-    <col min="21" max="31" width="4.08984375" style="6" customWidth="1"/>
-    <col min="32" max="35" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="6" width="4.125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="4.125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="7.25" style="6" customWidth="1"/>
+    <col min="20" max="20" width="8.875" style="6" customWidth="1"/>
+    <col min="21" max="31" width="4.125" style="6" customWidth="1"/>
+    <col min="32" max="35" width="4.125" style="23" customWidth="1"/>
     <col min="36" max="39" width="4" style="6" customWidth="1"/>
     <col min="40" max="16384" width="9" style="6"/>
   </cols>
@@ -35254,12 +35572,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -35898,7 +36216,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:180" ht="41" customHeight="1">
+    <row r="12" spans="1:180" ht="41.1" customHeight="1">
       <c r="A12" s="106" t="s">
         <v>19</v>
       </c>
@@ -35951,7 +36269,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="56" customHeight="1">
+    <row r="13" spans="1:180" ht="56.1" customHeight="1">
       <c r="A13" s="106"/>
       <c r="B13" s="108"/>
       <c r="C13" s="106"/>
@@ -35992,7 +36310,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="56" customHeight="1">
+    <row r="14" spans="1:180" ht="56.1" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106"/>
@@ -36033,7 +36351,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:180" ht="56" customHeight="1">
+    <row r="15" spans="1:180" ht="56.1" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="108"/>
       <c r="C15" s="106"/>
@@ -36074,7 +36392,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
     </row>
-    <row r="16" spans="1:180" ht="56" customHeight="1">
+    <row r="16" spans="1:180" ht="56.1" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="108"/>
       <c r="C16" s="106"/>
@@ -36115,7 +36433,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40" ht="33.5" customHeight="1">
+    <row r="17" spans="1:40" ht="33.6" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="108"/>
       <c r="C17" s="106"/>
@@ -36156,7 +36474,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" ht="35" customHeight="1">
+    <row r="18" spans="1:40" ht="35.1" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="108"/>
       <c r="C18" s="106"/>
@@ -36238,7 +36556,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40" ht="32.5" customHeight="1">
+    <row r="20" spans="1:40" ht="32.450000000000003" customHeight="1">
       <c r="A20" s="106"/>
       <c r="B20" s="108"/>
       <c r="C20" s="106"/>
@@ -36279,7 +36597,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40" ht="34" customHeight="1">
+    <row r="21" spans="1:40" ht="33.950000000000003" customHeight="1">
       <c r="A21" s="106"/>
       <c r="B21" s="108"/>
       <c r="C21" s="106"/>
@@ -36320,7 +36638,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40" ht="34" customHeight="1">
+    <row r="22" spans="1:40" ht="33.950000000000003" customHeight="1">
       <c r="A22" s="106"/>
       <c r="B22" s="108"/>
       <c r="C22" s="106"/>
@@ -36402,7 +36720,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
-    <row r="24" spans="1:40" ht="48.5" customHeight="1">
+    <row r="24" spans="1:40" ht="48.6" customHeight="1">
       <c r="A24" s="106"/>
       <c r="B24" s="108"/>
       <c r="C24" s="106"/>
@@ -36443,7 +36761,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" spans="1:40" ht="42.5" customHeight="1">
+    <row r="25" spans="1:40" ht="42.6" customHeight="1">
       <c r="A25" s="106"/>
       <c r="B25" s="108"/>
       <c r="C25" s="106"/>
@@ -36525,7 +36843,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
     </row>
-    <row r="27" spans="1:40" ht="48.5" customHeight="1">
+    <row r="27" spans="1:40" ht="48.6" customHeight="1">
       <c r="A27" s="106"/>
       <c r="B27" s="108"/>
       <c r="C27" s="106"/>
@@ -36566,7 +36884,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6"/>
     </row>
-    <row r="28" spans="1:40" ht="59" customHeight="1">
+    <row r="28" spans="1:40" ht="59.1" customHeight="1">
       <c r="A28" s="106"/>
       <c r="B28" s="108"/>
       <c r="C28" s="106"/>
@@ -36607,7 +36925,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6"/>
     </row>
-    <row r="29" spans="1:40" ht="71.5" customHeight="1">
+    <row r="29" spans="1:40" ht="71.45" customHeight="1">
       <c r="A29" s="106"/>
       <c r="B29" s="108"/>
       <c r="C29" s="106"/>
@@ -36648,7 +36966,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6"/>
     </row>
-    <row r="30" spans="1:40" ht="46" customHeight="1">
+    <row r="30" spans="1:40" ht="45.95" customHeight="1">
       <c r="A30" s="106"/>
       <c r="B30" s="108"/>
       <c r="C30" s="106"/>
@@ -37833,6 +38151,11 @@
     <mergeCell ref="K14:V14"/>
     <mergeCell ref="W14:AG14"/>
     <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:V9"/>
+    <mergeCell ref="W9:AG9"/>
+    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -37845,19 +38168,6 @@
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:V12"/>
     <mergeCell ref="W12:AG12"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:V8"/>
-    <mergeCell ref="W8:AG8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:V9"/>
-    <mergeCell ref="W9:AG9"/>
-    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:J10"/>
@@ -37874,6 +38184,14 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="K6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:V8"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="R2:T2"/>
@@ -37910,12 +38228,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -38554,7 +38872,7 @@
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
     </row>
-    <row r="12" spans="1:180" ht="41" customHeight="1">
+    <row r="12" spans="1:180" ht="41.1" customHeight="1">
       <c r="A12" s="106" t="s">
         <v>19</v>
       </c>
@@ -38607,7 +38925,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="56" customHeight="1">
+    <row r="13" spans="1:180" ht="56.1" customHeight="1">
       <c r="A13" s="106"/>
       <c r="B13" s="108"/>
       <c r="C13" s="106"/>
@@ -38648,7 +38966,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="56" customHeight="1">
+    <row r="14" spans="1:180" ht="56.1" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106"/>
@@ -38689,7 +39007,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:180" ht="56" customHeight="1">
+    <row r="15" spans="1:180" ht="56.1" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="108"/>
       <c r="C15" s="106"/>
@@ -38730,7 +39048,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
     </row>
-    <row r="16" spans="1:180" ht="56" customHeight="1">
+    <row r="16" spans="1:180" ht="56.1" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="108"/>
       <c r="C16" s="106"/>
@@ -38771,7 +39089,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40" ht="33.5" customHeight="1">
+    <row r="17" spans="1:40" ht="33.6" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="108"/>
       <c r="C17" s="106"/>
@@ -38812,7 +39130,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" ht="35" customHeight="1">
+    <row r="18" spans="1:40" ht="35.1" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="108"/>
       <c r="C18" s="106"/>
@@ -38894,7 +39212,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40" ht="32.5" customHeight="1">
+    <row r="20" spans="1:40" ht="32.450000000000003" customHeight="1">
       <c r="A20" s="106"/>
       <c r="B20" s="108"/>
       <c r="C20" s="106"/>
@@ -38935,7 +39253,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40" ht="34" customHeight="1">
+    <row r="21" spans="1:40" ht="33.950000000000003" customHeight="1">
       <c r="A21" s="106"/>
       <c r="B21" s="108"/>
       <c r="C21" s="106"/>
@@ -38976,7 +39294,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40" ht="34" customHeight="1">
+    <row r="22" spans="1:40" ht="33.950000000000003" customHeight="1">
       <c r="A22" s="106"/>
       <c r="B22" s="108"/>
       <c r="C22" s="106"/>
@@ -39058,7 +39376,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
-    <row r="24" spans="1:40" ht="48.5" customHeight="1">
+    <row r="24" spans="1:40" ht="48.6" customHeight="1">
       <c r="A24" s="106"/>
       <c r="B24" s="108"/>
       <c r="C24" s="106"/>
@@ -39099,7 +39417,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" spans="1:40" ht="42.5" customHeight="1">
+    <row r="25" spans="1:40" ht="42.6" customHeight="1">
       <c r="A25" s="106"/>
       <c r="B25" s="108"/>
       <c r="C25" s="106"/>
@@ -39181,7 +39499,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
     </row>
-    <row r="27" spans="1:40" ht="48.5" customHeight="1">
+    <row r="27" spans="1:40" ht="48.6" customHeight="1">
       <c r="A27" s="106"/>
       <c r="B27" s="108"/>
       <c r="C27" s="106"/>
@@ -39222,7 +39540,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6"/>
     </row>
-    <row r="28" spans="1:40" ht="59" customHeight="1">
+    <row r="28" spans="1:40" ht="59.1" customHeight="1">
       <c r="A28" s="106"/>
       <c r="B28" s="108"/>
       <c r="C28" s="106"/>
@@ -39263,7 +39581,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6"/>
     </row>
-    <row r="29" spans="1:40" ht="71.5" customHeight="1">
+    <row r="29" spans="1:40" ht="71.45" customHeight="1">
       <c r="A29" s="106"/>
       <c r="B29" s="108"/>
       <c r="C29" s="106"/>
@@ -39304,7 +39622,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6"/>
     </row>
-    <row r="30" spans="1:40" ht="46" customHeight="1">
+    <row r="30" spans="1:40" ht="45.95" customHeight="1">
       <c r="A30" s="106"/>
       <c r="B30" s="108"/>
       <c r="C30" s="106"/>
@@ -40489,6 +40807,11 @@
     <mergeCell ref="K14:V14"/>
     <mergeCell ref="W14:AG14"/>
     <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:V9"/>
+    <mergeCell ref="W9:AG9"/>
+    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -40501,19 +40824,6 @@
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:V12"/>
     <mergeCell ref="W12:AG12"/>
-    <mergeCell ref="W6:AG6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:V8"/>
-    <mergeCell ref="W8:AG8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:V9"/>
-    <mergeCell ref="W9:AG9"/>
-    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:J10"/>
@@ -40530,6 +40840,14 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="K6:V6"/>
+    <mergeCell ref="W6:AG6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:V8"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="R2:T2"/>
@@ -40563,12 +40881,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="4.08984375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="4.08984375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="22" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="35" width="4.08984375" style="6" customWidth="1"/>
-    <col min="36" max="38" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="6" width="4.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4.125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="22" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="35" width="4.125" style="6" customWidth="1"/>
+    <col min="36" max="38" width="4.125" style="23" customWidth="1"/>
     <col min="39" max="42" width="4" style="6" customWidth="1"/>
     <col min="43" max="16384" width="9" style="6"/>
   </cols>
@@ -47291,7 +47609,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="140" spans="1:34" ht="13" customHeight="1">
+    <row r="140" spans="1:34" ht="12.95" customHeight="1">
       <c r="A140" s="106"/>
       <c r="B140" s="108"/>
       <c r="C140" s="109"/>
@@ -48698,13 +49016,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="32" width="4.08984375" style="6" customWidth="1"/>
-    <col min="33" max="33" width="5.1796875" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="32" width="4.125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="5.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -49404,7 +49722,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="25" customHeight="1">
+    <row r="13" spans="1:180" ht="24.95" customHeight="1">
       <c r="A13" s="106" t="s">
         <v>50</v>
       </c>
@@ -51062,12 +51380,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -51818,7 +52136,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="30.5" customHeight="1">
+    <row r="14" spans="1:180" ht="30.6" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106" t="s">
@@ -51869,7 +52187,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:180" ht="32.5" customHeight="1">
+    <row r="15" spans="1:180" ht="32.450000000000003" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="108"/>
       <c r="C15" s="106" t="s">
@@ -51969,7 +52287,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40" ht="35" customHeight="1">
+    <row r="17" spans="1:40" ht="35.1" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="108"/>
       <c r="C17" s="106" t="s">
@@ -53570,17 +53888,17 @@
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="W13" sqref="W13:AG13"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -54272,7 +54590,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="21.5" customHeight="1">
+    <row r="13" spans="1:180" ht="21.6" customHeight="1">
       <c r="A13" s="106" t="s">
         <v>50</v>
       </c>
@@ -54325,7 +54643,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="33.5" customHeight="1">
+    <row r="14" spans="1:180" ht="33.6" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106" t="s">
@@ -54374,7 +54692,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:180" ht="33.5" customHeight="1">
+    <row r="15" spans="1:180" ht="33.6" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="108"/>
       <c r="C15" s="106" t="s">
@@ -54423,7 +54741,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
     </row>
-    <row r="16" spans="1:180" ht="33.5" customHeight="1">
+    <row r="16" spans="1:180" ht="33.6" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="108"/>
       <c r="C16" s="106" t="s">
@@ -54521,7 +54839,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" ht="38.5" customHeight="1">
+    <row r="18" spans="1:40" ht="38.450000000000003" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="108"/>
       <c r="C18" s="106" t="s">
@@ -54570,7 +54888,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="1:40" ht="35" customHeight="1">
+    <row r="19" spans="1:40" ht="35.1" customHeight="1">
       <c r="A19" s="106"/>
       <c r="B19" s="108"/>
       <c r="C19" s="106" t="s">
@@ -56103,12 +56421,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -58453,17 +58771,17 @@
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23:V23"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25:V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -59155,7 +59473,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="39.5" customHeight="1">
+    <row r="13" spans="1:180" ht="39.6" customHeight="1">
       <c r="A13" s="106" t="s">
         <v>50</v>
       </c>
@@ -59208,7 +59526,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="38.5" customHeight="1">
+    <row r="14" spans="1:180" ht="38.450000000000003" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106" t="s">
@@ -59257,7 +59575,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:180" ht="41.5" customHeight="1">
+    <row r="15" spans="1:180" ht="41.45" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="108"/>
       <c r="C15" s="106" t="s">
@@ -59306,7 +59624,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
     </row>
-    <row r="16" spans="1:180" ht="37" customHeight="1">
+    <row r="16" spans="1:180" ht="36.950000000000003" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="108"/>
       <c r="C16" s="106" t="s">
@@ -59355,7 +59673,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40" ht="50" customHeight="1">
+    <row r="17" spans="1:40" ht="50.1" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="108"/>
       <c r="C17" s="106" t="s">
@@ -59404,7 +59722,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" ht="52" customHeight="1">
+    <row r="18" spans="1:40" ht="51.95" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="108"/>
       <c r="C18" s="106" t="s">
@@ -59453,7 +59771,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="1:40" ht="52" customHeight="1">
+    <row r="19" spans="1:40" ht="51.95" customHeight="1">
       <c r="A19" s="106"/>
       <c r="B19" s="108"/>
       <c r="C19" s="106" t="s">
@@ -59502,7 +59820,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40" ht="52" customHeight="1">
+    <row r="20" spans="1:40" ht="51.95" customHeight="1">
       <c r="A20" s="106"/>
       <c r="B20" s="108"/>
       <c r="C20" s="106" t="s">
@@ -59551,7 +59869,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40" ht="52" customHeight="1">
+    <row r="21" spans="1:40" ht="51.95" customHeight="1">
       <c r="A21" s="106"/>
       <c r="B21" s="108"/>
       <c r="C21" s="106" t="s">
@@ -59600,7 +59918,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40" ht="52" customHeight="1">
+    <row r="22" spans="1:40" ht="51.95" customHeight="1">
       <c r="A22" s="106"/>
       <c r="B22" s="108"/>
       <c r="C22" s="106" t="s">
@@ -59649,7 +59967,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
     </row>
-    <row r="23" spans="1:40" ht="52" customHeight="1">
+    <row r="23" spans="1:40" ht="51.95" customHeight="1">
       <c r="A23" s="106"/>
       <c r="B23" s="108"/>
       <c r="C23" s="106" t="s">
@@ -59747,7 +60065,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" spans="1:40" ht="32" customHeight="1">
+    <row r="25" spans="1:40" ht="32.1" customHeight="1">
       <c r="A25" s="106"/>
       <c r="B25" s="108"/>
       <c r="C25" s="106" t="s">
@@ -61215,19 +61533,19 @@
   <dimension ref="A1:FX46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32:V32"/>
+      <selection pane="bottomLeft" activeCell="W30" sqref="W30:AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="8" width="4.08984375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4.08984375" style="22" customWidth="1"/>
-    <col min="11" max="33" width="4.08984375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="4.08984375" style="47" customWidth="1"/>
-    <col min="35" max="37" width="4.08984375" style="6" customWidth="1"/>
-    <col min="38" max="40" width="4.08984375" style="23" customWidth="1"/>
+    <col min="1" max="8" width="4.125" style="6" customWidth="1"/>
+    <col min="9" max="10" width="4.125" style="22" customWidth="1"/>
+    <col min="11" max="33" width="4.125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="47" customWidth="1"/>
+    <col min="35" max="37" width="4.125" style="6" customWidth="1"/>
+    <col min="38" max="40" width="4.125" style="23" customWidth="1"/>
     <col min="41" max="44" width="4" style="6" customWidth="1"/>
     <col min="45" max="16384" width="9" style="6"/>
   </cols>
@@ -61919,7 +62237,7 @@
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
     </row>
-    <row r="13" spans="1:180" ht="29.5" customHeight="1">
+    <row r="13" spans="1:180" ht="29.45" customHeight="1">
       <c r="A13" s="106" t="s">
         <v>50</v>
       </c>
@@ -61972,7 +62290,7 @@
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
     </row>
-    <row r="14" spans="1:180" ht="33.5" customHeight="1">
+    <row r="14" spans="1:180" ht="33.6" customHeight="1">
       <c r="A14" s="106"/>
       <c r="B14" s="108"/>
       <c r="C14" s="106" t="s">
@@ -62021,7 +62339,7 @@
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
     </row>
-    <row r="15" spans="1:180" ht="31" customHeight="1">
+    <row r="15" spans="1:180" ht="30.95" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="108"/>
       <c r="C15" s="106" t="s">
@@ -62119,7 +62437,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" spans="1:40" ht="32.5" customHeight="1">
+    <row r="17" spans="1:40" ht="32.450000000000003" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="108"/>
       <c r="C17" s="106" t="s">
@@ -62168,7 +62486,7 @@
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
     </row>
-    <row r="18" spans="1:40" ht="34" customHeight="1">
+    <row r="18" spans="1:40" ht="33.950000000000003" customHeight="1">
       <c r="A18" s="106"/>
       <c r="B18" s="108"/>
       <c r="C18" s="106" t="s">
@@ -62217,7 +62535,7 @@
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
-    <row r="19" spans="1:40" ht="35.5" customHeight="1">
+    <row r="19" spans="1:40" ht="35.450000000000003" customHeight="1">
       <c r="A19" s="106"/>
       <c r="B19" s="108"/>
       <c r="C19" s="106" t="s">
@@ -62266,7 +62584,7 @@
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
-    <row r="20" spans="1:40" ht="32.5" customHeight="1">
+    <row r="20" spans="1:40" ht="32.450000000000003" customHeight="1">
       <c r="A20" s="106"/>
       <c r="B20" s="108"/>
       <c r="C20" s="106" t="s">
@@ -62315,7 +62633,7 @@
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
     </row>
-    <row r="21" spans="1:40" ht="37" customHeight="1">
+    <row r="21" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A21" s="106"/>
       <c r="B21" s="108"/>
       <c r="C21" s="106" t="s">
@@ -62364,7 +62682,7 @@
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
     </row>
-    <row r="22" spans="1:40" ht="37" customHeight="1">
+    <row r="22" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A22" s="106"/>
       <c r="B22" s="108"/>
       <c r="C22" s="106" t="s">
@@ -62413,7 +62731,7 @@
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
     </row>
-    <row r="23" spans="1:40" ht="37" customHeight="1">
+    <row r="23" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A23" s="106"/>
       <c r="B23" s="108"/>
       <c r="C23" s="106" t="s">
@@ -62462,7 +62780,7 @@
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
     </row>
-    <row r="24" spans="1:40" ht="37" customHeight="1">
+    <row r="24" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A24" s="106"/>
       <c r="B24" s="108"/>
       <c r="C24" s="106" t="s">
@@ -62511,7 +62829,7 @@
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
     </row>
-    <row r="25" spans="1:40" ht="37" customHeight="1">
+    <row r="25" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A25" s="106"/>
       <c r="B25" s="108"/>
       <c r="C25" s="106" t="s">
@@ -62560,7 +62878,7 @@
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
     </row>
-    <row r="26" spans="1:40" ht="37" customHeight="1">
+    <row r="26" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A26" s="106"/>
       <c r="B26" s="108"/>
       <c r="C26" s="106" t="s">
@@ -62609,7 +62927,7 @@
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
     </row>
-    <row r="27" spans="1:40" ht="37" customHeight="1">
+    <row r="27" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A27" s="106"/>
       <c r="B27" s="108"/>
       <c r="C27" s="106" t="s">
@@ -62658,7 +62976,7 @@
       <c r="AM27" s="6"/>
       <c r="AN27" s="6"/>
     </row>
-    <row r="28" spans="1:40" ht="37" customHeight="1">
+    <row r="28" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A28" s="106"/>
       <c r="B28" s="108"/>
       <c r="C28" s="106" t="s">
@@ -62707,7 +63025,7 @@
       <c r="AM28" s="6"/>
       <c r="AN28" s="6"/>
     </row>
-    <row r="29" spans="1:40" ht="37" customHeight="1">
+    <row r="29" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A29" s="106"/>
       <c r="B29" s="108"/>
       <c r="C29" s="106" t="s">
@@ -62756,7 +63074,7 @@
       <c r="AM29" s="6"/>
       <c r="AN29" s="6"/>
     </row>
-    <row r="30" spans="1:40" ht="37" customHeight="1">
+    <row r="30" spans="1:40" ht="36.950000000000003" customHeight="1">
       <c r="A30" s="106"/>
       <c r="B30" s="108"/>
       <c r="C30" s="106" t="s">
@@ -63481,7 +63799,6 @@
     <mergeCell ref="AF3:AH4"/>
     <mergeCell ref="AI3:AJ4"/>
     <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="K10:V10"/>
@@ -63493,16 +63810,6 @@
     <mergeCell ref="K9:V9"/>
     <mergeCell ref="W9:AG9"/>
     <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:V8"/>
-    <mergeCell ref="W8:AG8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:V6"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:J12"/>
@@ -63516,6 +63823,17 @@
     <mergeCell ref="K11:V11"/>
     <mergeCell ref="W11:AG11"/>
     <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:V8"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:V6"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:J14"/>
